--- a/data/trans_bre/P16A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.904238303893345</v>
+        <v>-2.194668841195197</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6819829528863831</v>
+        <v>-0.5090650022906231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3313676518149965</v>
+        <v>0.3429739299259964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.268735710747639</v>
+        <v>-2.219017942010561</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7136663468294426</v>
+        <v>-0.7519227324705747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3251922724551604</v>
+        <v>-0.2682194947954663</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1080219069060617</v>
+        <v>-0.1355081014157177</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.776274993132605</v>
+        <v>-0.8065072219182158</v>
       </c>
     </row>
     <row r="6">
@@ -692,29 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.492527148175373</v>
+        <v>1.249952864379002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.493910692310402</v>
+        <v>3.674157539231726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.754749270610748</v>
+        <v>3.707461221524369</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.783774806947468</v>
+        <v>3.664458871909885</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.791655266805273</v>
+        <v>1.38701127077907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.037440841826561</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>15.97055262447468</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>7.542681116142156</v>
-      </c>
+        <v>2.892727965684071</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -749,7 +745,7 @@
         <v>-0.2078573446885308</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8580824292733681</v>
+        <v>0.8580824292733676</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3392387877350441</v>
+        <v>0.5672895977069629</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6487357164922671</v>
+        <v>-0.5936604224859288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.763228364303347</v>
+        <v>-2.705929734066395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.257020884074305</v>
+        <v>-1.187799097929974</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05879352629995939</v>
+        <v>0.1925158344386319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2132235270953936</v>
+        <v>-0.1782236848413742</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6338379158701035</v>
+        <v>-0.6219928007707431</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5481212872613972</v>
+        <v>-0.6041441815753036</v>
       </c>
     </row>
     <row r="9">
@@ -792,30 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.339824773176144</v>
+        <v>3.447903363681305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.150826469176422</v>
+        <v>4.007910123061994</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.359558706291107</v>
+        <v>1.351684106397086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.125191834663988</v>
+        <v>2.89244005998364</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.71386200620816</v>
+        <v>6.516357963841259</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.152601040003129</v>
+        <v>2.033124804678785</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6963827619594266</v>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.6938940801795398</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>7.986076907504835</v>
       </c>
     </row>
     <row r="10">
@@ -862,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04314067826086023</v>
+        <v>0.08221249331981234</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.257934350612342</v>
+        <v>-1.189675695486776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.461686145990586</v>
+        <v>-1.863636881146667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.015361846008328</v>
+        <v>-1.08194108811913</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1233021265186465</v>
+        <v>-0.08764125809206839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4353347852077032</v>
+        <v>-0.4298809554982239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5287137047845316</v>
+        <v>-0.601071010429449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3247797975665728</v>
+        <v>-0.33577880762165</v>
       </c>
     </row>
     <row r="12">
@@ -894,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.774560794541781</v>
+        <v>2.752720610866752</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.066324507981221</v>
+        <v>2.118535187247236</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.514108900767298</v>
+        <v>1.450349582516674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.122620747065371</v>
+        <v>2.350771209967532</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.502509677672641</v>
+        <v>8.16569427218935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.4082048767344</v>
+        <v>1.433280416455655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.195279402556901</v>
+        <v>1.03472238544677</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.740096527672635</v>
+        <v>1.931617656968104</v>
       </c>
     </row>
     <row r="13">
@@ -962,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.859245314696786</v>
+        <v>-1.774601285301395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.17808595156267</v>
+        <v>-2.068389039300127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.547974905922728</v>
+        <v>-2.670749172175807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.023591724934902</v>
+        <v>-1.976603964109505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7843766074828953</v>
+        <v>-0.7715518307169856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7118266277841699</v>
+        <v>-0.7164578000294989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8889213984100705</v>
+        <v>-0.8844977622728935</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4708537516096287</v>
+        <v>-0.4810189765342201</v>
       </c>
     </row>
     <row r="15">
@@ -994,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.289263113111956</v>
+        <v>1.25708842783317</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.12884705834468</v>
+        <v>1.223224211931671</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1835660183871835</v>
+        <v>0.07162593642165675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.422976723998874</v>
+        <v>1.620500335874756</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.368834182536365</v>
+        <v>1.700665107971957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.188941971582961</v>
+        <v>1.15147052026045</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4442071789677451</v>
+        <v>0.2424062141288362</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7321890244618806</v>
+        <v>0.809571423498567</v>
       </c>
     </row>
     <row r="16">
@@ -1039,7 +1033,7 @@
         <v>1.450312729616769</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.851914353855687</v>
+        <v>1.851914353855689</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3043115472959547</v>
@@ -1051,7 +1045,7 @@
         <v>0.6962555268092602</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7536776656691389</v>
+        <v>0.7536776656691396</v>
       </c>
     </row>
     <row r="17">
@@ -1062,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.298971048279219</v>
+        <v>-3.293440719162523</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.786095199698399</v>
+        <v>-3.765969805500815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8383752565815275</v>
+        <v>-0.6606114322051511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.166251188341366</v>
+        <v>0.1325996954965364</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7256484846941993</v>
+        <v>-0.7119835730743794</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7882323007456694</v>
+        <v>-0.783983545667248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4022396761319406</v>
+        <v>-0.2916594251529757</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01224025667461938</v>
+        <v>0.02477750436153647</v>
       </c>
     </row>
     <row r="18">
@@ -1094,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.397297403682204</v>
+        <v>1.327663089760292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.825262569050718</v>
+        <v>0.6992133267347908</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.721215683027074</v>
+        <v>3.667833664871804</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.466037824237632</v>
+        <v>3.68580104343628</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8053229144914992</v>
+        <v>0.7813726045901175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5293082705143455</v>
+        <v>0.4458296891424983</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.258897507225112</v>
+        <v>3.10426752090728</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.097767834803701</v>
+        <v>2.24186733339902</v>
       </c>
     </row>
     <row r="19">
@@ -1139,7 +1133,7 @@
         <v>-0.4080801140650517</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9832037895887411</v>
+        <v>0.9832037895887408</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.06040195268517719</v>
@@ -1151,7 +1145,7 @@
         <v>-0.149890834563322</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.3893522145259577</v>
+        <v>0.3893522145259575</v>
       </c>
     </row>
     <row r="20">
@@ -1162,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.924743891081885</v>
+        <v>-2.849732465186634</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.141823938088939</v>
+        <v>-7.309250774461248</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.980145202755953</v>
+        <v>-2.911929479747865</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.8393737877121585</v>
+        <v>-0.9760808600915312</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6554132662090612</v>
+        <v>-0.6305680666505805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.814703391687214</v>
+        <v>-0.820918132702629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7665921882369704</v>
+        <v>-0.7371968335194111</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2504250303972151</v>
+        <v>-0.2812810405511637</v>
       </c>
     </row>
     <row r="21">
@@ -1194,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.347004740615119</v>
+        <v>2.258462310035832</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1990196906296076</v>
+        <v>0.2466988829976711</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.890502706337981</v>
+        <v>2.31431154438563</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.864017556215452</v>
+        <v>2.569490290788377</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.275084329876987</v>
+        <v>1.341030859408143</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2597525045388338</v>
+        <v>0.1861858436106958</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.450870043627944</v>
+        <v>1.871212664594252</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.763425129320286</v>
+        <v>1.636453987384212</v>
       </c>
     </row>
     <row r="22">
@@ -1251,7 +1245,7 @@
         <v>2.95832223616819</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5541249701563288</v>
+        <v>0.5541249701563293</v>
       </c>
     </row>
     <row r="23">
@@ -1262,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.183916137600248</v>
+        <v>-4.455407656731253</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.327823249951332</v>
+        <v>-5.019742167342621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2917171402059883</v>
+        <v>0.03282682769085759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9571392297536335</v>
+        <v>-0.6581922330202902</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7025010759140261</v>
+        <v>-0.7225103493322438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.700540034881475</v>
+        <v>-0.7409746712751836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3199398122209743</v>
+        <v>-0.379295180444481</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2274911236699955</v>
+        <v>-0.1845026365740533</v>
       </c>
     </row>
     <row r="24">
@@ -1294,26 +1288,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.720679483850291</v>
+        <v>2.38926284617813</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.653419884984854</v>
+        <v>2.146512675058217</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.187937103794035</v>
+        <v>4.07876818461547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.798311439289779</v>
+        <v>4.067439700797572</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.405559847896211</v>
+        <v>1.271559076542095</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.664783688750813</v>
+        <v>0.9641567706657597</v>
       </c>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>2.005612957258138</v>
+        <v>2.602435105508849</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1331,7 @@
         <v>0.2192169732448543</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9998589725017899</v>
+        <v>0.9998589725017906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.235798251101906</v>
@@ -1349,7 +1343,7 @@
         <v>0.1076308051470025</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4298087320358401</v>
+        <v>0.4298087320358406</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1354,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.2179975097634058</v>
+        <v>-0.2041482664471615</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.7913063920182654</v>
+        <v>-0.8960927537946676</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.5310334745694519</v>
+        <v>-0.4816098699748104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1992248862391044</v>
+        <v>0.267518955072048</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1040906960779764</v>
+        <v>-0.1025224870553173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2564768624288139</v>
+        <v>-0.2691396063930201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2252830549987114</v>
+        <v>-0.2044832624802568</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07156971569418079</v>
+        <v>0.08990823901014222</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1386,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.163924018632682</v>
+        <v>1.1397893417042</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8335951272650444</v>
+        <v>0.851500697914071</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9113784945393721</v>
+        <v>0.910237214561226</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.697718507839557</v>
+        <v>1.782022849457091</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7871328993670569</v>
+        <v>0.753544346393312</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3351710371404421</v>
+        <v>0.3570808311674705</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5528238428944331</v>
+        <v>0.5355067487042472</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9067259660573175</v>
+        <v>0.9210741551135696</v>
       </c>
     </row>
     <row r="28">
